--- a/ebs_with_tracing/forms/app/noresponse.xlsx
+++ b/ebs_with_tracing/forms/app/noresponse.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="242">
   <si>
     <t>list_name</t>
   </si>
@@ -528,9 +528,6 @@
   </si>
   <si>
     <t>begin_group</t>
-  </si>
-  <si>
-    <t>end_group</t>
   </si>
   <si>
     <t>What is the patient's name?</t>
@@ -1039,7 +1036,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1135,9 +1132,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1468,13 +1462,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL54"/>
+  <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1547,11 +1541,11 @@
       <c r="Q1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="R1" s="70" t="s">
+      <c r="R1" s="69" t="s">
+        <v>236</v>
+      </c>
+      <c r="S1" s="69" t="s">
         <v>237</v>
-      </c>
-      <c r="S1" s="70" t="s">
-        <v>238</v>
       </c>
       <c r="T1" s="26" t="s">
         <v>26</v>
@@ -1727,146 +1721,146 @@
       <c r="AD5" s="33"/>
     </row>
     <row r="6" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="52" t="s">
         <v>160</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53" t="s">
+        <v>161</v>
+      </c>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="53"/>
+      <c r="U6" s="53"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="53"/>
+      <c r="X6" s="53"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
+      <c r="AA6" s="53"/>
+      <c r="AB6" s="53"/>
+      <c r="AC6" s="53"/>
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="53"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+    </row>
+    <row r="7" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+    </row>
+    <row r="8" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54" t="s">
-        <v>161</v>
-      </c>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="54"/>
-      <c r="T6" s="54"/>
-      <c r="U6" s="54"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="54"/>
-      <c r="X6" s="54"/>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
-      <c r="AA6" s="54"/>
-      <c r="AB6" s="54"/>
-      <c r="AC6" s="54"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AG6" s="54"/>
-      <c r="AH6" s="54"/>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-    </row>
-    <row r="7" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
-      <c r="S7" s="54"/>
-      <c r="T7" s="54"/>
-      <c r="U7" s="54"/>
-      <c r="V7" s="54"/>
-      <c r="W7" s="54"/>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="54"/>
-      <c r="Z7" s="54"/>
-      <c r="AA7" s="54"/>
-      <c r="AB7" s="54"/>
-      <c r="AC7" s="54"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AF7" s="54"/>
-      <c r="AG7" s="54"/>
-      <c r="AH7" s="54"/>
-      <c r="AI7" s="54"/>
-      <c r="AJ7" s="55"/>
-      <c r="AK7" s="55"/>
-      <c r="AL7" s="55"/>
-    </row>
-    <row r="8" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="53" t="s">
+      <c r="C8" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="54"/>
-      <c r="U8" s="54"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="54"/>
-      <c r="X8" s="54"/>
-      <c r="Y8" s="54"/>
-      <c r="Z8" s="54"/>
-      <c r="AA8" s="54"/>
-      <c r="AB8" s="54"/>
-      <c r="AC8" s="54"/>
-      <c r="AD8" s="54"/>
-      <c r="AE8" s="54"/>
-      <c r="AF8" s="54"/>
-      <c r="AG8" s="54"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="55"/>
-      <c r="AK8" s="55"/>
-      <c r="AL8" s="55"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="53"/>
+      <c r="P8" s="53"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="53"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="53"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53"/>
+      <c r="X8" s="53"/>
+      <c r="Y8" s="53"/>
+      <c r="Z8" s="53"/>
+      <c r="AA8" s="53"/>
+      <c r="AB8" s="53"/>
+      <c r="AC8" s="53"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="53"/>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="53"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
     </row>
     <row r="9" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
@@ -1907,98 +1901,98 @@
       <c r="AD9" s="33"/>
     </row>
     <row r="10" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="53" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="53"/>
+      <c r="T10" s="53"/>
+      <c r="U10" s="53"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="53"/>
+      <c r="X10" s="53"/>
+      <c r="Y10" s="53"/>
+      <c r="Z10" s="53"/>
+      <c r="AA10" s="53"/>
+      <c r="AB10" s="53"/>
+      <c r="AC10" s="53"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="53">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="53"/>
+      <c r="AH10" s="53"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+    </row>
+    <row r="11" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="54"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="54"/>
-      <c r="X10" s="54"/>
-      <c r="Y10" s="54"/>
-      <c r="Z10" s="54"/>
-      <c r="AA10" s="54"/>
-      <c r="AB10" s="54"/>
-      <c r="AC10" s="54"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AF10" s="54">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="54"/>
-      <c r="AI10" s="54"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-    </row>
-    <row r="11" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="53" t="s">
+      <c r="C11" s="53" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="54"/>
-      <c r="V11" s="54"/>
-      <c r="W11" s="54"/>
-      <c r="X11" s="54"/>
-      <c r="Y11" s="54"/>
-      <c r="Z11" s="54"/>
-      <c r="AA11" s="54"/>
-      <c r="AB11" s="54"/>
-      <c r="AC11" s="54"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AF11" s="54"/>
-      <c r="AG11" s="54"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
     </row>
     <row r="12" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
@@ -2043,10 +2037,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -2302,193 +2296,193 @@
       <c r="AD19" s="39"/>
     </row>
     <row r="20" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+      <c r="K20" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="L20" s="56"/>
+      <c r="M20" s="56"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="56"/>
+      <c r="AC20" s="56"/>
+      <c r="AD20" s="56"/>
+      <c r="AE20" s="56"/>
+      <c r="AF20" s="56"/>
+      <c r="AG20" s="56"/>
+      <c r="AH20" s="56"/>
+      <c r="AI20" s="56"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+    </row>
+    <row r="21" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57" t="s">
-        <v>175</v>
-      </c>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="58"/>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-    </row>
-    <row r="21" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="D21" s="56"/>
+      <c r="E21" s="56"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+      <c r="K21" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="L21" s="56"/>
+      <c r="M21" s="56"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="56"/>
+      <c r="X21" s="56"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="56"/>
+      <c r="AC21" s="56"/>
+      <c r="AD21" s="56"/>
+      <c r="AE21" s="56"/>
+      <c r="AF21" s="56"/>
+      <c r="AG21" s="56"/>
+      <c r="AH21" s="56"/>
+      <c r="AI21" s="56"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+    </row>
+    <row r="22" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B21" s="56" t="s">
-        <v>176</v>
-      </c>
-      <c r="C21" s="57" t="s">
+      <c r="B22" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C22" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57" t="s">
-        <v>177</v>
-      </c>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="58"/>
-      <c r="AK21" s="58"/>
-      <c r="AL21" s="58"/>
-    </row>
-    <row r="22" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="56"/>
+      <c r="R22" s="56"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+      <c r="U22" s="56"/>
+      <c r="V22" s="56"/>
+      <c r="X22" s="56"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="56"/>
+      <c r="AC22" s="56"/>
+      <c r="AD22" s="56"/>
+      <c r="AE22" s="56"/>
+      <c r="AF22" s="56"/>
+      <c r="AG22" s="56"/>
+      <c r="AH22" s="56"/>
+      <c r="AI22" s="56"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+    </row>
+    <row r="23" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>188</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="B23" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C23" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="58"/>
-      <c r="AK22" s="58"/>
-      <c r="AL22" s="58"/>
-    </row>
-    <row r="23" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="56" t="s">
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="C23" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57" t="s">
-        <v>192</v>
-      </c>
-      <c r="L23" s="57"/>
-      <c r="M23" s="57"/>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="57"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="57"/>
-      <c r="AB23" s="57"/>
-      <c r="AC23" s="57"/>
-      <c r="AD23" s="57"/>
-      <c r="AE23" s="57"/>
-      <c r="AF23" s="57"/>
-      <c r="AG23" s="57"/>
-      <c r="AH23" s="57"/>
-      <c r="AI23" s="57"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="56"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57"/>
     </row>
     <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
@@ -2557,7 +2551,7 @@
         <v>165</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>35</v>
@@ -2593,13 +2587,13 @@
     </row>
     <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B27" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>195</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="D27" s="40"/>
       <c r="E27" s="40"/>
@@ -2630,13 +2624,13 @@
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B28" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>197</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>198</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -2667,13 +2661,13 @@
     </row>
     <row r="29" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B29" s="46" t="s">
+        <v>198</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>199</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>200</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -2704,13 +2698,13 @@
     </row>
     <row r="30" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B30" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>201</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>202</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -2739,120 +2733,122 @@
       <c r="AB30" s="41"/>
       <c r="AC30" s="41"/>
     </row>
-    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="B31" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="40"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="40"/>
-      <c r="P31" s="40"/>
-      <c r="Q31" s="40"/>
-      <c r="R31" s="40"/>
-      <c r="S31" s="40"/>
-      <c r="T31" s="40"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41"/>
-      <c r="X31" s="41"/>
-      <c r="Y31" s="41"/>
-      <c r="Z31" s="41"/>
-      <c r="AA31" s="41"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-    </row>
-    <row r="32" spans="1:38" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="51"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-    </row>
-    <row r="33" spans="1:29" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42" t="s">
+    <row r="31" spans="1:38" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="61"/>
+      <c r="V31" s="61"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="61"/>
+      <c r="Y31" s="61"/>
+      <c r="Z31" s="61"/>
+      <c r="AA31" s="61"/>
+      <c r="AB31" s="61"/>
+      <c r="AC31" s="61"/>
+    </row>
+    <row r="32" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B32" s="42" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43" t="s">
+        <v>221</v>
+      </c>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
+      <c r="W32" s="44"/>
+      <c r="X32" s="44"/>
+      <c r="Y32" s="44"/>
+      <c r="Z32" s="44"/>
+      <c r="AA32" s="44"/>
+      <c r="AB32" s="44"/>
+      <c r="AC32" s="44"/>
+    </row>
+    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="C33" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="43"/>
-      <c r="G33" s="43" t="s">
-        <v>222</v>
-      </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="43"/>
-      <c r="J33" s="43"/>
-      <c r="K33" s="43"/>
-      <c r="L33" s="43"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="43"/>
-      <c r="Q33" s="43"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
+      <c r="B33" s="48" t="s">
+        <v>204</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="E33" s="40"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="40"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="40"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="40"/>
+      <c r="N33" s="40"/>
+      <c r="O33" s="40"/>
+      <c r="P33" s="40"/>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+      <c r="AA33" s="41"/>
+      <c r="AB33" s="41"/>
+      <c r="AC33" s="41"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -2883,18 +2879,20 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
+      <c r="G35" s="40" t="s">
+        <v>220</v>
+      </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -2919,21 +2917,21 @@
       <c r="AC35" s="41"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="B36" s="48" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>220</v>
+      <c r="A36" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C36" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40" t="s">
-        <v>221</v>
-      </c>
+      <c r="F36" s="67" t="s">
+        <v>228</v>
+      </c>
+      <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -2943,7 +2941,9 @@
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
+      <c r="Q36" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -2958,20 +2958,18 @@
       <c r="AC36" s="41"/>
     </row>
     <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+      <c r="A37" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="63" t="s">
         <v>223</v>
       </c>
-      <c r="C37" s="65" t="s">
+      <c r="C37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="68" t="s">
-        <v>229</v>
-      </c>
+      <c r="F37" s="40"/>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -2985,7 +2983,9 @@
       <c r="Q37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="40"/>
+      <c r="R37" s="40" t="b">
+        <v>1</v>
+      </c>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="41"/>
@@ -2999,13 +2999,13 @@
       <c r="AC37" s="41"/>
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B38" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="65" t="s">
+      <c r="A38" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="C38" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D38" s="40"/>
@@ -3015,18 +3015,16 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="K38" s="67" t="s">
+        <v>229</v>
+      </c>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
-      <c r="Q38" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="R38" s="40" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
       <c r="S38" s="40"/>
       <c r="T38" s="40"/>
       <c r="U38" s="41"/>
@@ -3040,14 +3038,14 @@
       <c r="AC38" s="41"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+      <c r="A39" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="64" t="s">
         <v>180</v>
-      </c>
-      <c r="C39" s="65" t="s">
-        <v>35</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -3056,8 +3054,8 @@
       <c r="H39" s="40"/>
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
-      <c r="K39" s="68" t="s">
-        <v>230</v>
+      <c r="K39" s="67" t="s">
+        <v>181</v>
       </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
@@ -3079,14 +3077,14 @@
       <c r="AC39" s="41"/>
     </row>
     <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40" s="65" t="s">
-        <v>181</v>
+      <c r="B40" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="C40" s="64" t="s">
+        <v>35</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -3095,8 +3093,8 @@
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
-      <c r="K40" s="68" t="s">
-        <v>182</v>
+      <c r="K40" s="67" t="s">
+        <v>183</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
@@ -3118,13 +3116,13 @@
       <c r="AC40" s="41"/>
     </row>
     <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+      <c r="A41" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B41" s="64" t="s">
-        <v>183</v>
-      </c>
-      <c r="C41" s="65" t="s">
+      <c r="B41" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="C41" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D41" s="40"/>
@@ -3134,8 +3132,8 @@
       <c r="H41" s="40"/>
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
-      <c r="K41" s="68" t="s">
-        <v>184</v>
+      <c r="K41" s="67" t="s">
+        <v>239</v>
       </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
@@ -3157,13 +3155,13 @@
       <c r="AC41" s="41"/>
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" s="64" t="s">
+      <c r="A42" s="63" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="63" t="s">
         <v>185</v>
       </c>
-      <c r="C42" s="65" t="s">
+      <c r="C42" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="40"/>
@@ -3173,9 +3171,7 @@
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="68" t="s">
-        <v>240</v>
-      </c>
+      <c r="K42" s="68"/>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
       <c r="N42" s="40"/>
@@ -3196,13 +3192,13 @@
       <c r="AC42" s="41"/>
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C43" s="65" t="s">
+      <c r="A43" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="40"/>
@@ -3212,7 +3208,9 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="69"/>
+      <c r="K43" s="67" t="s">
+        <v>230</v>
+      </c>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
       <c r="N43" s="40"/>
@@ -3233,13 +3231,13 @@
       <c r="AC43" s="41"/>
     </row>
     <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+      <c r="A44" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="65" t="s">
+      <c r="B44" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="40"/>
@@ -3272,13 +3270,13 @@
       <c r="AC44" s="41"/>
     </row>
     <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+      <c r="A45" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="C45" s="65" t="s">
+      <c r="B45" s="63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D45" s="40"/>
@@ -3288,7 +3286,7 @@
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="69" t="s">
+      <c r="K45" s="67" t="s">
         <v>232</v>
       </c>
       <c r="L45" s="40"/>
@@ -3311,10 +3309,10 @@
       <c r="AC45" s="41"/>
     </row>
     <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="63" t="s">
         <v>225</v>
       </c>
       <c r="C46" s="65" t="s">
@@ -3327,7 +3325,7 @@
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
-      <c r="K46" s="68" t="s">
+      <c r="K46" s="67" t="s">
         <v>233</v>
       </c>
       <c r="L46" s="40"/>
@@ -3350,15 +3348,13 @@
       <c r="AC46" s="41"/>
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B47" s="64" t="s">
-        <v>226</v>
-      </c>
-      <c r="C47" s="66" t="s">
-        <v>35</v>
-      </c>
+      <c r="A47" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C47" s="64"/>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
@@ -3366,9 +3362,7 @@
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="68" t="s">
-        <v>234</v>
-      </c>
+      <c r="K47" s="68"/>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
@@ -3389,13 +3383,15 @@
       <c r="AC47" s="41"/>
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="65"/>
+      <c r="A48" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="63" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -3403,7 +3399,9 @@
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="69"/>
+      <c r="K48" s="68" t="s">
+        <v>234</v>
+      </c>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
       <c r="N48" s="40"/>
@@ -3411,7 +3409,9 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
-      <c r="S48" s="40"/>
+      <c r="S48" s="40" t="s">
+        <v>238</v>
+      </c>
       <c r="T48" s="40"/>
       <c r="U48" s="41"/>
       <c r="V48" s="41"/>
@@ -3424,15 +3424,13 @@
       <c r="AC48" s="41"/>
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B49" s="64" t="s">
-        <v>227</v>
-      </c>
-      <c r="C49" s="65" t="s">
-        <v>35</v>
-      </c>
+      <c r="A49" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B49" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="C49" s="64"/>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
@@ -3440,9 +3438,7 @@
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="69" t="s">
-        <v>235</v>
-      </c>
+      <c r="K49" s="68"/>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -3450,9 +3446,7 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
-      <c r="S49" s="40" t="s">
-        <v>239</v>
-      </c>
+      <c r="S49" s="40"/>
       <c r="T49" s="40"/>
       <c r="U49" s="41"/>
       <c r="V49" s="41"/>
@@ -3465,13 +3459,15 @@
       <c r="AC49" s="41"/>
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="C50" s="65"/>
+      <c r="A50" s="63" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" s="63" t="s">
+        <v>227</v>
+      </c>
+      <c r="C50" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
@@ -3479,7 +3475,9 @@
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="69"/>
+      <c r="K50" s="67" t="s">
+        <v>235</v>
+      </c>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
       <c r="N50" s="40"/>
@@ -3487,7 +3485,9 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
-      <c r="S50" s="40"/>
+      <c r="S50" s="67" t="s">
+        <v>235</v>
+      </c>
       <c r="T50" s="40"/>
       <c r="U50" s="41"/>
       <c r="V50" s="41"/>
@@ -3500,15 +3500,13 @@
       <c r="AC50" s="41"/>
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B51" s="64" t="s">
-        <v>228</v>
-      </c>
-      <c r="C51" s="65" t="s">
-        <v>35</v>
-      </c>
+      <c r="A51" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B51" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="64"/>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
@@ -3516,9 +3514,7 @@
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="68" t="s">
-        <v>236</v>
-      </c>
+      <c r="K51" s="40"/>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
@@ -3526,9 +3522,7 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
-      <c r="S51" s="68" t="s">
-        <v>236</v>
-      </c>
+      <c r="S51" s="40"/>
       <c r="T51" s="40"/>
       <c r="U51" s="41"/>
       <c r="V51" s="41"/>
@@ -3541,13 +3535,13 @@
       <c r="AC51" s="41"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+      <c r="A52" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="64" t="s">
-        <v>223</v>
-      </c>
-      <c r="C52" s="65"/>
+      <c r="B52" s="66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="66"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -3576,13 +3570,13 @@
       <c r="AC52" s="41"/>
     </row>
     <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="67" t="s">
+      <c r="A53" s="66" t="s">
         <v>63</v>
       </c>
-      <c r="B53" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="C53" s="67"/>
+      <c r="B53" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="66"/>
       <c r="D53" s="40"/>
       <c r="E53" s="40"/>
       <c r="F53" s="40"/>
@@ -3610,44 +3604,9 @@
       <c r="AB53" s="41"/>
       <c r="AC53" s="41"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="67" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="67" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="67"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="41"/>
-      <c r="V54" s="41"/>
-      <c r="W54" s="41"/>
-      <c r="X54" s="41"/>
-      <c r="Y54" s="41"/>
-      <c r="Z54" s="41"/>
-      <c r="AA54" s="41"/>
-      <c r="AB54" s="41"/>
-      <c r="AC54" s="41"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F19 D24:E54">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F19 D24:E53">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J20:J23">
@@ -3738,58 +3697,58 @@
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>207</v>
       </c>
-      <c r="C4" s="63" t="s">
+    </row>
+    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" s="62" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B5" s="63" t="s">
+      <c r="C5" s="62" t="s">
         <v>209</v>
       </c>
-      <c r="C5" s="63" t="s">
+    </row>
+    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="62" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="C6" s="62" t="s">
         <v>211</v>
       </c>
-      <c r="C6" s="63" t="s">
+    </row>
+    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="62" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B7" s="63" t="s">
+      <c r="C7" s="62" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="63" t="s">
+    </row>
+    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="62" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="63" t="s">
+      <c r="C8" s="62" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3813,95 +3772,95 @@
       <c r="C12" s="21"/>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
+      <c r="A13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="50"/>
-      <c r="Y15" s="50"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="50"/>
-      <c r="Y16" s="50"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="50"/>
-      <c r="Y17" s="50"/>
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="49"/>
+      <c r="S17" s="49"/>
+      <c r="T17" s="49"/>
+      <c r="U17" s="49"/>
+      <c r="V17" s="49"/>
+      <c r="W17" s="49"/>
+      <c r="X17" s="49"/>
+      <c r="Y17" s="49"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5"/>
@@ -4330,17 +4289,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44149.593654398152</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>187</v>
+        <v>44149.600959374999</v>
+      </c>
+      <c r="D2" s="60" t="s">
+        <v>186</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/ebs_with_tracing/forms/app/noresponse.xlsx
+++ b/ebs_with_tracing/forms/app/noresponse.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="244">
   <si>
     <t>list_name</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>phone</t>
+  </si>
+  <si>
+    <t>patient_phone</t>
+  </si>
+  <si>
+    <t>../inputs/contact/phone</t>
   </si>
 </sst>
 </file>
@@ -1462,13 +1468,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A31" sqref="A31:XFD31"/>
+      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2295,60 +2301,52 @@
       <c r="AC19" s="39"/>
       <c r="AD19" s="39"/>
     </row>
-    <row r="20" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="B20" s="55" t="s">
-        <v>173</v>
-      </c>
-      <c r="C20" s="56" t="s">
+      <c r="B20" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" s="56"/>
-      <c r="M20" s="56"/>
-      <c r="N20" s="56"/>
-      <c r="O20" s="56"/>
-      <c r="P20" s="56"/>
-      <c r="Q20" s="56"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+      <c r="K20" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
     </row>
     <row r="21" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="55" t="s">
         <v>95</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C21" s="56" t="s">
         <v>35</v>
@@ -2361,7 +2359,7 @@
       <c r="I21" s="56"/>
       <c r="J21" s="56"/>
       <c r="K21" s="56" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="L21" s="56"/>
       <c r="M21" s="56"/>
@@ -2374,6 +2372,7 @@
       <c r="T21" s="56"/>
       <c r="U21" s="56"/>
       <c r="V21" s="56"/>
+      <c r="W21" s="56"/>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
       <c r="Z21" s="56"/>
@@ -2395,7 +2394,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C22" s="56" t="s">
         <v>35</v>
@@ -2407,8 +2406,8 @@
       <c r="H22" s="56"/>
       <c r="I22" s="56"/>
       <c r="J22" s="56"/>
-      <c r="K22" s="38" t="s">
-        <v>188</v>
+      <c r="K22" s="56" t="s">
+        <v>176</v>
       </c>
       <c r="L22" s="56"/>
       <c r="M22" s="56"/>
@@ -2442,7 +2441,7 @@
         <v>95</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C23" s="56" t="s">
         <v>35</v>
@@ -2454,8 +2453,8 @@
       <c r="H23" s="56"/>
       <c r="I23" s="56"/>
       <c r="J23" s="56"/>
-      <c r="K23" s="56" t="s">
-        <v>191</v>
+      <c r="K23" s="38" t="s">
+        <v>188</v>
       </c>
       <c r="L23" s="56"/>
       <c r="M23" s="56"/>
@@ -2484,36 +2483,52 @@
       <c r="AK23" s="57"/>
       <c r="AL23" s="57"/>
     </row>
-    <row r="24" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="40"/>
-      <c r="I24" s="40"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="40"/>
-      <c r="L24" s="40"/>
-      <c r="M24" s="40"/>
-      <c r="N24" s="40"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
+    <row r="24" spans="1:38" s="46" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="56" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="56"/>
+      <c r="X24" s="56"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="56"/>
+      <c r="AC24" s="56"/>
+      <c r="AD24" s="56"/>
+      <c r="AE24" s="56"/>
+      <c r="AF24" s="56"/>
+      <c r="AG24" s="56"/>
+      <c r="AH24" s="56"/>
+      <c r="AI24" s="56"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
     </row>
     <row r="25" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
@@ -2546,91 +2561,85 @@
       <c r="AB25" s="41"/>
       <c r="AC25" s="41"/>
     </row>
-    <row r="26" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="42" t="s">
+    <row r="26" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40"/>
+      <c r="M26" s="40"/>
+      <c r="N26" s="40"/>
+      <c r="O26" s="40"/>
+      <c r="P26" s="40"/>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+      <c r="AA26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+    </row>
+    <row r="27" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B27" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C27" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43" t="s">
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
-      <c r="K26" s="43"/>
-      <c r="L26" s="43"/>
-      <c r="M26" s="43"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="43"/>
-      <c r="Q26" s="43"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="44"/>
-      <c r="Z26" s="44"/>
-      <c r="AA26" s="44"/>
-      <c r="AB26" s="44"/>
-      <c r="AC26" s="44"/>
-    </row>
-    <row r="27" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
-      <c r="L27" s="40"/>
-      <c r="M27" s="40"/>
-      <c r="N27" s="40"/>
-      <c r="O27" s="40"/>
-      <c r="P27" s="40"/>
-      <c r="Q27" s="40"/>
-      <c r="R27" s="40"/>
-      <c r="S27" s="40"/>
-      <c r="T27" s="40"/>
-      <c r="U27" s="41"/>
-      <c r="V27" s="41"/>
-      <c r="W27" s="41"/>
-      <c r="X27" s="41"/>
-      <c r="Y27" s="41"/>
-      <c r="Z27" s="41"/>
-      <c r="AA27" s="41"/>
-      <c r="AB27" s="41"/>
-      <c r="AC27" s="41"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="44"/>
+      <c r="V27" s="44"/>
+      <c r="W27" s="44"/>
+      <c r="X27" s="44"/>
+      <c r="Y27" s="44"/>
+      <c r="Z27" s="44"/>
+      <c r="AA27" s="44"/>
+      <c r="AB27" s="44"/>
+      <c r="AC27" s="44"/>
     </row>
     <row r="28" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="48" t="s">
         <v>177</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -2663,11 +2672,11 @@
       <c r="A29" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="B29" s="46" t="s">
-        <v>198</v>
+      <c r="B29" s="29" t="s">
+        <v>196</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -2701,10 +2710,10 @@
         <v>177</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -2733,122 +2742,122 @@
       <c r="AB30" s="41"/>
       <c r="AC30" s="41"/>
     </row>
-    <row r="31" spans="1:38" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="61"/>
-      <c r="V31" s="61"/>
-      <c r="W31" s="61"/>
-      <c r="X31" s="61"/>
-      <c r="Y31" s="61"/>
-      <c r="Z31" s="61"/>
-      <c r="AA31" s="61"/>
-      <c r="AB31" s="61"/>
-      <c r="AC31" s="61"/>
-    </row>
-    <row r="32" spans="1:38" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="31" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="46" t="s">
+        <v>200</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="40"/>
+      <c r="E31" s="40"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+      <c r="AA31" s="41"/>
+      <c r="AB31" s="41"/>
+      <c r="AC31" s="41"/>
+    </row>
+    <row r="32" spans="1:38" s="59" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="61"/>
+      <c r="Y32" s="61"/>
+      <c r="Z32" s="61"/>
+      <c r="AA32" s="61"/>
+      <c r="AB32" s="61"/>
+      <c r="AC32" s="61"/>
+    </row>
+    <row r="33" spans="1:29" s="45" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B33" s="42" t="s">
         <v>202</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C33" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43" t="s">
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="43"/>
-      <c r="J32" s="43"/>
-      <c r="K32" s="43"/>
-      <c r="L32" s="43"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="44"/>
-      <c r="V32" s="44"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="44"/>
-      <c r="Y32" s="44"/>
-      <c r="Z32" s="44"/>
-      <c r="AA32" s="44"/>
-      <c r="AB32" s="44"/>
-      <c r="AC32" s="44"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="B33" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C33" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="40"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="40"/>
-      <c r="P33" s="40"/>
-      <c r="Q33" s="40"/>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
-      <c r="T33" s="40"/>
-      <c r="U33" s="41"/>
-      <c r="V33" s="41"/>
-      <c r="W33" s="41"/>
-      <c r="X33" s="41"/>
-      <c r="Y33" s="41"/>
-      <c r="Z33" s="41"/>
-      <c r="AA33" s="41"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="44"/>
+      <c r="V33" s="44"/>
+      <c r="W33" s="44"/>
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44"/>
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44"/>
+      <c r="AB33" s="44"/>
+      <c r="AC33" s="44"/>
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="B34" s="48" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -2879,20 +2888,18 @@
     </row>
     <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="48" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
       <c r="B35" s="48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C35" s="40" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="40" t="s">
-        <v>220</v>
-      </c>
+      <c r="G35" s="40"/>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="40"/>
@@ -2917,21 +2924,21 @@
       <c r="AC35" s="41"/>
     </row>
     <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C36" s="64" t="s">
-        <v>35</v>
+      <c r="A36" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" s="48" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>219</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
-      <c r="F36" s="67" t="s">
-        <v>228</v>
-      </c>
-      <c r="G36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40" t="s">
+        <v>220</v>
+      </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="40"/>
@@ -2941,9 +2948,7 @@
       <c r="N36" s="40"/>
       <c r="O36" s="40"/>
       <c r="P36" s="40"/>
-      <c r="Q36" s="40" t="s">
-        <v>39</v>
-      </c>
+      <c r="Q36" s="40"/>
       <c r="R36" s="40"/>
       <c r="S36" s="40"/>
       <c r="T36" s="40"/>
@@ -2962,14 +2967,16 @@
         <v>32</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="67" t="s">
+        <v>228</v>
+      </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
       <c r="I37" s="40"/>
@@ -2983,9 +2990,7 @@
       <c r="Q37" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="R37" s="40" t="b">
-        <v>1</v>
-      </c>
+      <c r="R37" s="40"/>
       <c r="S37" s="40"/>
       <c r="T37" s="40"/>
       <c r="U37" s="41"/>
@@ -3000,10 +3005,10 @@
     </row>
     <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>179</v>
+        <v>223</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>35</v>
@@ -3015,16 +3020,18 @@
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
       <c r="J38" s="40"/>
-      <c r="K38" s="67" t="s">
-        <v>229</v>
-      </c>
+      <c r="K38" s="40"/>
       <c r="L38" s="40"/>
       <c r="M38" s="40"/>
       <c r="N38" s="40"/>
       <c r="O38" s="40"/>
       <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
+      <c r="Q38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="R38" s="40" t="b">
+        <v>1</v>
+      </c>
       <c r="S38" s="40"/>
       <c r="T38" s="40"/>
       <c r="U38" s="41"/>
@@ -3042,10 +3049,10 @@
         <v>95</v>
       </c>
       <c r="B39" s="63" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="C39" s="64" t="s">
-        <v>180</v>
+        <v>35</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
@@ -3055,7 +3062,7 @@
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
       <c r="K39" s="67" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
@@ -3081,10 +3088,10 @@
         <v>95</v>
       </c>
       <c r="B40" s="63" t="s">
-        <v>182</v>
+        <v>1</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
@@ -3094,7 +3101,7 @@
       <c r="I40" s="40"/>
       <c r="J40" s="40"/>
       <c r="K40" s="67" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
@@ -3120,7 +3127,7 @@
         <v>95</v>
       </c>
       <c r="B41" s="63" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C41" s="64" t="s">
         <v>35</v>
@@ -3133,7 +3140,7 @@
       <c r="I41" s="40"/>
       <c r="J41" s="40"/>
       <c r="K41" s="67" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="L41" s="40"/>
       <c r="M41" s="40"/>
@@ -3156,10 +3163,10 @@
     </row>
     <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="63" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B42" s="63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C42" s="64" t="s">
         <v>35</v>
@@ -3171,7 +3178,9 @@
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
-      <c r="K42" s="68"/>
+      <c r="K42" s="67" t="s">
+        <v>239</v>
+      </c>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
       <c r="N42" s="40"/>
@@ -3193,10 +3202,10 @@
     </row>
     <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="63" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B43" s="63" t="s">
-        <v>48</v>
+        <v>185</v>
       </c>
       <c r="C43" s="64" t="s">
         <v>35</v>
@@ -3208,9 +3217,7 @@
       <c r="H43" s="40"/>
       <c r="I43" s="40"/>
       <c r="J43" s="40"/>
-      <c r="K43" s="67" t="s">
-        <v>230</v>
-      </c>
+      <c r="K43" s="68"/>
       <c r="L43" s="40"/>
       <c r="M43" s="40"/>
       <c r="N43" s="40"/>
@@ -3235,7 +3242,7 @@
         <v>95</v>
       </c>
       <c r="B44" s="63" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="C44" s="64" t="s">
         <v>35</v>
@@ -3247,8 +3254,8 @@
       <c r="H44" s="40"/>
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
-      <c r="K44" s="68" t="s">
-        <v>231</v>
+      <c r="K44" s="67" t="s">
+        <v>230</v>
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
@@ -3274,7 +3281,7 @@
         <v>95</v>
       </c>
       <c r="B45" s="63" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C45" s="64" t="s">
         <v>35</v>
@@ -3286,8 +3293,8 @@
       <c r="H45" s="40"/>
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
-      <c r="K45" s="67" t="s">
-        <v>232</v>
+      <c r="K45" s="68" t="s">
+        <v>231</v>
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
@@ -3313,9 +3320,9 @@
         <v>95</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="65" t="s">
+        <v>224</v>
+      </c>
+      <c r="C46" s="64" t="s">
         <v>35</v>
       </c>
       <c r="D46" s="40"/>
@@ -3326,7 +3333,7 @@
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
       <c r="K46" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
@@ -3349,12 +3356,14 @@
     </row>
     <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="63" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="C47" s="64"/>
+        <v>225</v>
+      </c>
+      <c r="C47" s="65" t="s">
+        <v>35</v>
+      </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40"/>
@@ -3362,7 +3371,9 @@
       <c r="H47" s="40"/>
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
-      <c r="K47" s="68"/>
+      <c r="K47" s="67" t="s">
+        <v>233</v>
+      </c>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
       <c r="N47" s="40"/>
@@ -3384,14 +3395,12 @@
     </row>
     <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B48" s="63" t="s">
-        <v>226</v>
-      </c>
-      <c r="C48" s="64" t="s">
-        <v>35</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C48" s="64"/>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40"/>
@@ -3399,9 +3408,7 @@
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
       <c r="J48" s="40"/>
-      <c r="K48" s="68" t="s">
-        <v>234</v>
-      </c>
+      <c r="K48" s="68"/>
       <c r="L48" s="40"/>
       <c r="M48" s="40"/>
       <c r="N48" s="40"/>
@@ -3409,9 +3416,7 @@
       <c r="P48" s="40"/>
       <c r="Q48" s="40"/>
       <c r="R48" s="40"/>
-      <c r="S48" s="40" t="s">
-        <v>238</v>
-      </c>
+      <c r="S48" s="40"/>
       <c r="T48" s="40"/>
       <c r="U48" s="41"/>
       <c r="V48" s="41"/>
@@ -3425,12 +3430,14 @@
     </row>
     <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="63" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>223</v>
-      </c>
-      <c r="C49" s="64"/>
+        <v>226</v>
+      </c>
+      <c r="C49" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="D49" s="40"/>
       <c r="E49" s="40"/>
       <c r="F49" s="40"/>
@@ -3438,7 +3445,9 @@
       <c r="H49" s="40"/>
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
-      <c r="K49" s="68"/>
+      <c r="K49" s="68" t="s">
+        <v>234</v>
+      </c>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
       <c r="N49" s="40"/>
@@ -3446,7 +3455,9 @@
       <c r="P49" s="40"/>
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
-      <c r="S49" s="40"/>
+      <c r="S49" s="40" t="s">
+        <v>238</v>
+      </c>
       <c r="T49" s="40"/>
       <c r="U49" s="41"/>
       <c r="V49" s="41"/>
@@ -3460,14 +3471,12 @@
     </row>
     <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="63" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C50" s="64" t="s">
-        <v>35</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C50" s="64"/>
       <c r="D50" s="40"/>
       <c r="E50" s="40"/>
       <c r="F50" s="40"/>
@@ -3475,9 +3484,7 @@
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
       <c r="J50" s="40"/>
-      <c r="K50" s="67" t="s">
-        <v>235</v>
-      </c>
+      <c r="K50" s="68"/>
       <c r="L50" s="40"/>
       <c r="M50" s="40"/>
       <c r="N50" s="40"/>
@@ -3485,9 +3492,7 @@
       <c r="P50" s="40"/>
       <c r="Q50" s="40"/>
       <c r="R50" s="40"/>
-      <c r="S50" s="67" t="s">
-        <v>235</v>
-      </c>
+      <c r="S50" s="40"/>
       <c r="T50" s="40"/>
       <c r="U50" s="41"/>
       <c r="V50" s="41"/>
@@ -3501,12 +3506,14 @@
     </row>
     <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="63" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>222</v>
-      </c>
-      <c r="C51" s="64"/>
+        <v>227</v>
+      </c>
+      <c r="C51" s="64" t="s">
+        <v>35</v>
+      </c>
       <c r="D51" s="40"/>
       <c r="E51" s="40"/>
       <c r="F51" s="40"/>
@@ -3514,7 +3521,9 @@
       <c r="H51" s="40"/>
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
+      <c r="K51" s="67" t="s">
+        <v>235</v>
+      </c>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
       <c r="N51" s="40"/>
@@ -3522,7 +3531,9 @@
       <c r="P51" s="40"/>
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
-      <c r="S51" s="40"/>
+      <c r="S51" s="67" t="s">
+        <v>235</v>
+      </c>
       <c r="T51" s="40"/>
       <c r="U51" s="41"/>
       <c r="V51" s="41"/>
@@ -3535,13 +3546,13 @@
       <c r="AC51" s="41"/>
     </row>
     <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="66" t="s">
+      <c r="A52" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C52" s="66"/>
+      <c r="B52" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="64"/>
       <c r="D52" s="40"/>
       <c r="E52" s="40"/>
       <c r="F52" s="40"/>
@@ -3574,7 +3585,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="40"/>
@@ -3604,12 +3615,47 @@
       <c r="AB53" s="41"/>
       <c r="AC53" s="41"/>
     </row>
+    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="B54" s="66" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="66"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="40"/>
+      <c r="K54" s="40"/>
+      <c r="L54" s="40"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="40"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+      <c r="AA54" s="41"/>
+      <c r="AB54" s="41"/>
+      <c r="AC54" s="41"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F19 D24:E53">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 D25:E54 E12:F20">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J20:J23">
+    <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J21:J24">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4296,7 +4342,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44149.600959374999</v>
+        <v>44149.602714814813</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>186</v>

--- a/ebs_with_tracing/forms/app/noresponse.xlsx
+++ b/ebs_with_tracing/forms/app/noresponse.xlsx
@@ -617,9 +617,6 @@
     <t>p_reason</t>
   </si>
   <si>
-    <t>Number of days since last response: (at least) ${patient_days_response}</t>
-  </si>
-  <si>
     <t>p_phone</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>../inputs/contact/phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of days since last response: (at least) </t>
   </si>
 </sst>
 </file>
@@ -1471,10 +1471,10 @@
   <dimension ref="A1:AL54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1548,10 +1548,10 @@
         <v>25</v>
       </c>
       <c r="R1" s="69" t="s">
+        <v>235</v>
+      </c>
+      <c r="S1" s="69" t="s">
         <v>236</v>
-      </c>
-      <c r="S1" s="69" t="s">
-        <v>237</v>
       </c>
       <c r="T1" s="26" t="s">
         <v>26</v>
@@ -2043,10 +2043,10 @@
         <v>39</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -2306,7 +2306,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C20" s="38" t="s">
         <v>35</v>
@@ -2319,7 +2319,7 @@
       <c r="I20" s="38"/>
       <c r="J20" s="38"/>
       <c r="K20" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L20" s="38"/>
       <c r="M20" s="38"/>
@@ -2639,7 +2639,7 @@
         <v>194</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="D28" s="40"/>
       <c r="E28" s="40"/>
@@ -2673,10 +2673,10 @@
         <v>177</v>
       </c>
       <c r="B29" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>196</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>197</v>
       </c>
       <c r="D29" s="40"/>
       <c r="E29" s="40"/>
@@ -2710,10 +2710,10 @@
         <v>177</v>
       </c>
       <c r="B30" s="46" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>198</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>199</v>
       </c>
       <c r="D30" s="40"/>
       <c r="E30" s="40"/>
@@ -2747,10 +2747,10 @@
         <v>177</v>
       </c>
       <c r="B31" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>200</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>201</v>
       </c>
       <c r="D31" s="40"/>
       <c r="E31" s="40"/>
@@ -2815,7 +2815,7 @@
         <v>165</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>35</v>
@@ -2824,7 +2824,7 @@
       <c r="E33" s="43"/>
       <c r="F33" s="43"/>
       <c r="G33" s="43" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H33" s="43"/>
       <c r="I33" s="43"/>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B34" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="B34" s="48" t="s">
+      <c r="C34" s="40" t="s">
         <v>204</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>205</v>
       </c>
       <c r="D34" s="40"/>
       <c r="E34" s="40"/>
@@ -2891,10 +2891,10 @@
         <v>164</v>
       </c>
       <c r="B35" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="C35" s="40" t="s">
         <v>216</v>
-      </c>
-      <c r="C35" s="40" t="s">
-        <v>217</v>
       </c>
       <c r="D35" s="40"/>
       <c r="E35" s="40"/>
@@ -2928,16 +2928,16 @@
         <v>178</v>
       </c>
       <c r="B36" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="40" t="s">
         <v>218</v>
-      </c>
-      <c r="C36" s="40" t="s">
-        <v>219</v>
       </c>
       <c r="D36" s="40"/>
       <c r="E36" s="40"/>
       <c r="F36" s="40"/>
       <c r="G36" s="40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
@@ -2967,7 +2967,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C37" s="64" t="s">
         <v>35</v>
@@ -2975,7 +2975,7 @@
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="67" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="40"/>
@@ -3008,7 +3008,7 @@
         <v>32</v>
       </c>
       <c r="B38" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C38" s="64" t="s">
         <v>35</v>
@@ -3062,7 +3062,7 @@
       <c r="I39" s="40"/>
       <c r="J39" s="40"/>
       <c r="K39" s="67" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
@@ -3179,7 +3179,7 @@
       <c r="I42" s="40"/>
       <c r="J42" s="40"/>
       <c r="K42" s="67" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L42" s="40"/>
       <c r="M42" s="40"/>
@@ -3255,7 +3255,7 @@
       <c r="I44" s="40"/>
       <c r="J44" s="40"/>
       <c r="K44" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="L44" s="40"/>
       <c r="M44" s="40"/>
@@ -3294,7 +3294,7 @@
       <c r="I45" s="40"/>
       <c r="J45" s="40"/>
       <c r="K45" s="68" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="L45" s="40"/>
       <c r="M45" s="40"/>
@@ -3320,7 +3320,7 @@
         <v>95</v>
       </c>
       <c r="B46" s="63" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="64" t="s">
         <v>35</v>
@@ -3333,7 +3333,7 @@
       <c r="I46" s="40"/>
       <c r="J46" s="40"/>
       <c r="K46" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
@@ -3359,7 +3359,7 @@
         <v>95</v>
       </c>
       <c r="B47" s="63" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C47" s="65" t="s">
         <v>35</v>
@@ -3372,7 +3372,7 @@
       <c r="I47" s="40"/>
       <c r="J47" s="40"/>
       <c r="K47" s="67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L47" s="40"/>
       <c r="M47" s="40"/>
@@ -3433,7 +3433,7 @@
         <v>95</v>
       </c>
       <c r="B49" s="63" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C49" s="64" t="s">
         <v>35</v>
@@ -3446,7 +3446,7 @@
       <c r="I49" s="40"/>
       <c r="J49" s="40"/>
       <c r="K49" s="68" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L49" s="40"/>
       <c r="M49" s="40"/>
@@ -3456,7 +3456,7 @@
       <c r="Q49" s="40"/>
       <c r="R49" s="40"/>
       <c r="S49" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="T49" s="40"/>
       <c r="U49" s="41"/>
@@ -3474,7 +3474,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="63" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C50" s="64"/>
       <c r="D50" s="40"/>
@@ -3509,7 +3509,7 @@
         <v>95</v>
       </c>
       <c r="B51" s="63" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" s="64" t="s">
         <v>35</v>
@@ -3522,7 +3522,7 @@
       <c r="I51" s="40"/>
       <c r="J51" s="40"/>
       <c r="K51" s="67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L51" s="40"/>
       <c r="M51" s="40"/>
@@ -3532,7 +3532,7 @@
       <c r="Q51" s="40"/>
       <c r="R51" s="40"/>
       <c r="S51" s="67" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="T51" s="40"/>
       <c r="U51" s="41"/>
@@ -3550,7 +3550,7 @@
         <v>63</v>
       </c>
       <c r="B52" s="63" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="64"/>
       <c r="D52" s="40"/>
@@ -3585,7 +3585,7 @@
         <v>63</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C53" s="66"/>
       <c r="D53" s="40"/>
@@ -3744,57 +3744,57 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B4" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" s="62" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="C5" s="62" t="s">
         <v>208</v>
-      </c>
-      <c r="C5" s="62" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B6" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="62" t="s">
         <v>210</v>
-      </c>
-      <c r="C6" s="62" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>212</v>
-      </c>
-      <c r="C7" s="62" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8" s="62" t="s">
         <v>214</v>
-      </c>
-      <c r="C8" s="62" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44149.602714814813</v>
+        <v>44149.611388888887</v>
       </c>
       <c r="D2" s="60" t="s">
         <v>186</v>
